--- a/data/clean/Macaca_survey_1519.xlsx
+++ b/data/clean/Macaca_survey_1519.xlsx
@@ -5285,6 +5285,11 @@
           <t>新北市</t>
         </is>
       </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>A05-20</t>
+        </is>
+      </c>
       <c r="C165" t="inlineStr">
         <is>
           <t>9</t>
@@ -5300,7 +5305,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>_9</t>
+          <t>A05-20_9</t>
         </is>
       </c>
     </row>
@@ -12535,6 +12540,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>嘉義縣</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>A36-01</t>
